--- a/vzorek_dat.xlsx
+++ b/vzorek_dat.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="B1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/vzorek_dat.xlsx
+++ b/vzorek_dat.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="B1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
